--- a/OriginTable/GlobalConfig.xlsx
+++ b/OriginTable/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21165" windowHeight="12975"/>
+    <workbookView windowWidth="25950" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>方块移动被重置的次数上限</t>
+  </si>
+  <si>
+    <t>Destroy_TimeCount</t>
+  </si>
+  <si>
+    <t>方块停留在外边缘时，被销毁前的时间，单位为毫秒</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +732,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,16 +1048,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
     <col min="4" max="5" width="6.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="47.25" style="3" customWidth="1"/>
@@ -1130,6 +1139,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OriginTable/GlobalConfig.xlsx
+++ b/OriginTable/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25950" windowHeight="12975"/>
+    <workbookView windowWidth="25005" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>方块停留在外边缘时，被销毁前的时间，单位为毫秒</t>
+  </si>
+  <si>
+    <t>CubeArea_width</t>
+  </si>
+  <si>
+    <t>方块场地的宽度，单位是单位格个数</t>
+  </si>
+  <si>
+    <t>CubeArea_height</t>
+  </si>
+  <si>
+    <t>方块场地的高度，单位是单位格个数</t>
+  </si>
+  <si>
+    <t>BackGroundArea_width</t>
+  </si>
+  <si>
+    <t>总场地的宽度，单位是单位格个数</t>
+  </si>
+  <si>
+    <t>BackGroundArea_height</t>
+  </si>
+  <si>
+    <t>总场地的高度，单位是单位格个数</t>
   </si>
 </sst>
 </file>
@@ -1048,16 +1072,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
     <col min="4" max="5" width="6.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="47.25" style="3" customWidth="1"/>
@@ -1146,14 +1170,82 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>3000</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/GlobalConfig.xlsx
+++ b/OriginTable/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25005" windowHeight="12975"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -80,28 +80,16 @@
     <t>方块停留在外边缘时，被销毁前的时间，单位为毫秒</t>
   </si>
   <si>
-    <t>CubeArea_width</t>
-  </si>
-  <si>
-    <t>方块场地的宽度，单位是单位格个数</t>
-  </si>
-  <si>
-    <t>CubeArea_height</t>
-  </si>
-  <si>
-    <t>方块场地的高度，单位是单位格个数</t>
-  </si>
-  <si>
-    <t>BackGroundArea_width</t>
-  </si>
-  <si>
-    <t>总场地的宽度，单位是单位格个数</t>
-  </si>
-  <si>
-    <t>BackGroundArea_height</t>
-  </si>
-  <si>
-    <t>总场地的高度，单位是单位格个数</t>
+    <t>Min_Bomb_Distance</t>
+  </si>
+  <si>
+    <t>生成炸弹时，离方块场地边缘的最小距离</t>
+  </si>
+  <si>
+    <t>Bomb_Limit</t>
+  </si>
+  <si>
+    <t>玩家可以持有的炸弹方块数量上限</t>
   </si>
 </sst>
 </file>
@@ -736,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,9 +744,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1060,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1187,10 +1172,10 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1204,49 +1189,23 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>20</v>
+      <c r="D7" s="2">
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="3:4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="3:4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
